--- a/bookings.xlsx
+++ b/bookings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Booking Time</t>
         </is>
       </c>
@@ -458,66 +463,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>user_test_1</t>
+          <t>محمد احمد رجب</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>كشف قلب</t>
+          <t>كشف</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25 ديسمبر</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-12-23 05:03:45</t>
+          <t>Saturday 8 AM</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1208140337</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:00:30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>user_test_1</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>رسم قلب</t>
+          <t>موجات صوتية على القلب Echo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25 ديسمبر 2025</t>
+          <t>الأحد القادم الساعة 2 ظهراً</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-23 05:18:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>25058065653803875</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>كشف قلب</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>الاثنين ٨ ديسمبر</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-12-23 07:51:41</t>
+          <t>01018654380</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:13:40</t>
         </is>
       </c>
     </row>
